--- a/SFDX Devops.xlsx
+++ b/SFDX Devops.xlsx
@@ -5,31 +5,42 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bhuvanesh\Commands\Commands\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bhuvanesh\Commands\SFDXDevops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DB4D05-4064-4D19-A3B9-B8ED268DACDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BDC61F-457D-4161-9728-B828749CC56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Authorize ORG" sheetId="1" r:id="rId1"/>
-    <sheet name="Generate openssl" sheetId="3" r:id="rId2"/>
-    <sheet name="Retrieve &amp; Deploy File" sheetId="4" r:id="rId3"/>
-    <sheet name="SFDX GitDelta" sheetId="5" r:id="rId4"/>
-    <sheet name="Sfdx commands" sheetId="2" r:id="rId5"/>
+    <sheet name="Salesforce DX Project" sheetId="6" r:id="rId2"/>
+    <sheet name="Generate openssl" sheetId="3" r:id="rId3"/>
+    <sheet name="Retrieve &amp; Deploy File" sheetId="4" r:id="rId4"/>
+    <sheet name="SFDX GitDelta" sheetId="5" r:id="rId5"/>
+    <sheet name="Sfdx commands" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
   <si>
     <t>sfdx force:auth:web:login --setalias vscodeOrg --instanceurl https://login.salesforce.com --setdefaultusername</t>
   </si>
@@ -131,9 +142,6 @@
   </si>
   <si>
     <t>===========================</t>
-  </si>
-  <si>
-    <t>sfdx auth:jwt:grant --clientid 04580y4051234051 \ --jwtkeyfile /Users/jdoe/JWT/server.key --username jdoe@acdxgs0hub.org \ --instanceurl https://test.salesforce.com</t>
   </si>
   <si>
     <t>jenkins authorization:</t>
@@ -361,12 +369,320 @@
   <si>
     <t>Two Options for Metadata API Retrieve&amp;Deploy:</t>
   </si>
+  <si>
+    <t>sfdx auth:jwt:grant --clientid 3MVG9pRzvMkjMb6n4G9JImA_XYs7_9aLMPDWr89Ax7H3ddHyjjfNpTzNCAtGpyDvGas.9H8i6EITypSTGqhrp \ --jwtkeyfile \Users\Srimathi\Downloads\server.key --username kumarbhuvanesh625@empathetic-badger-nug693.com \ --instanceurl https://test.salesforce.com</t>
+  </si>
+  <si>
+    <t>Create a Salesforce DX Project</t>
+  </si>
+  <si>
+    <t>A Salesforce DX project has a specific structure and a configuration file that identifies the directory as a Salesforce DX project</t>
+  </si>
+  <si>
+    <t>Before you create your project, first decide if you’re following</t>
+  </si>
+  <si>
+    <t>(ii)package-based project development model</t>
+  </si>
+  <si>
+    <t>(i)org-based development model</t>
+  </si>
+  <si>
+    <t>1.Org-based--&gt;</t>
+  </si>
+  <si>
+    <t>https://developer.salesforce.com/docs/atlas.en-us.sfdx_dev.meta/sfdx_dev/sfdx_dev_ws_create_new.htm</t>
+  </si>
+  <si>
+    <r>
+      <t>If you’re following org-based development, change to the directory where you want the DX project located. Then run </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="Var(--dx-g-font-mono)"/>
+      </rPr>
+      <t>force:project:create -n MyProject --manifest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">to generate your project with a default </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>manifest (package.xml) file</t>
+    </r>
+  </si>
+  <si>
+    <t>2.package-based project development model</t>
+  </si>
+  <si>
+    <t>In package-based Development I can create a project with minimal (empty) or expanded (standard) scaffolding. The default is standard, which provides extended scaffolding to facilitate moving source to and from your orgs</t>
+  </si>
+  <si>
+    <t>Create the DX project--&gt;</t>
+  </si>
+  <si>
+    <t>The standard template provides a complete directory structure that takes the guesswork out of where to put your source</t>
+  </si>
+  <si>
+    <t>It also provides these files that are especially helpful when using Salesforce Extensions for VS Code</t>
+  </si>
+  <si>
+    <r>
+      <t>.vscode/extensions.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="Var(--dx-g-font-sans)"/>
+      </rPr>
+      <t>: Causes Visual Studio Code, when launched, to prompt you to install the recommended extensions for your project.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>.vscode/launch.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="Var(--dx-g-font-sans)"/>
+      </rPr>
+      <t>: Configures Replay Debugger, making it more discoverable and easier to use.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>.vscode/settings.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="Var(--dx-g-font-sans)"/>
+      </rPr>
+      <t>: By default, this file has one setting, for push or deploy on save, which is set to false. You can change this value or add other settings</t>
+    </r>
+  </si>
+  <si>
+    <t>.gitignore: Makes it easier to start using Git for version control.</t>
+  </si>
+  <si>
+    <r>
+      <t>.prettierrc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="Var(--dx-g-font-sans)"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="Var(--dx-g-font-mono)"/>
+      </rPr>
+      <t>.prettierignore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="Var(--dx-g-font-sans)"/>
+      </rPr>
+      <t>: Make it easier to start using Prettier to format your Aura components.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The important config files which we need is </t>
+  </si>
+  <si>
+    <t>.forceignore</t>
+  </si>
+  <si>
+    <t>config/project-scratch-def.json</t>
+  </si>
+  <si>
+    <t>sfdx-project.json</t>
+  </si>
+  <si>
+    <t>package.json</t>
+  </si>
+  <si>
+    <t>sfdx force:project:create -n &lt;ProjectName&gt;</t>
+  </si>
+  <si>
+    <t>When syncing metadata between your local file system and a target org, you often have source files you want to exclude. Similarly, you often want to exclude certain files when converting source to Salesforce DX source format</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF181818"/>
+        <rFont val="Var(--dx-g-font-mono)"/>
+      </rPr>
+      <t>.forceignore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> file excludes files when running all the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="Var(--dx-g-font-mono)"/>
+      </rPr>
+      <t>force:source:*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> commands, such as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="Var(--dx-g-font-mono)"/>
+      </rPr>
+      <t>force:source:push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="Var(--dx-g-font-mono)"/>
+      </rPr>
+      <t>force:source:pull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="Var(--dx-g-font-mono)"/>
+      </rPr>
+      <t>force:source:deploy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF181818"/>
+        <rFont val="Var(--dx-g-font-mono)"/>
+      </rPr>
+      <t>force:source:retrieve</t>
+    </r>
+  </si>
+  <si>
+    <t>A Salesforce DX project has a specific project structure and source format. Source format uses a different set of files and file extensions from what you’re accustomed when using Metadata API</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Package.json file is used to set the directory path when we retreive the file from the org we must have the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>package.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> file and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>sfdx-project.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for where the files,metadata,codes will be stored </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,8 +729,59 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF181818"/>
+      <name val="Var(--dx-g-font-mono)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0B0B0B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0B0B0B"/>
+      <name val="Var(--dx-g-font-sans)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF181818"/>
+      <name val="Var(--dx-g-font-mono)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF181818"/>
+      <name val="Var(--dx-g-font-mono)"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,8 +836,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -493,11 +894,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -532,9 +965,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -815,117 +1267,117 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="A7:B7"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.5546875" customWidth="1"/>
     <col min="2" max="2" width="78.33203125" customWidth="1"/>
     <col min="3" max="3" width="75.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8">
       <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8">
+      <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:2" ht="28.8">
+      <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:2" ht="43.2">
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="7" spans="1:2" ht="28.8">
+      <c r="A7" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="43.2">
       <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.8">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="57.6">
+      <c r="A15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="72">
+      <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -935,6 +1387,155 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5C2BFD-B78D-4DCA-A49A-6028BA971C8F}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="37.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="D1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75">
+      <c r="B8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75">
+      <c r="B10" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45">
+      <c r="C11" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="C12" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8">
+      <c r="C13" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27.6">
+      <c r="C14" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="40.799999999999997">
+      <c r="C15" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27.6">
+      <c r="C16" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="40.799999999999997">
+      <c r="C17" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15" thickBot="1">
+      <c r="B20" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="22"/>
+    </row>
+    <row r="21" spans="2:5" ht="109.8" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C21" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.6" thickTop="1" thickBot="1">
+      <c r="C22" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.6" thickTop="1" thickBot="1">
+      <c r="C23" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="106.2" thickTop="1" thickBot="1">
+      <c r="C24" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15" thickTop="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8CD1F7-E0FC-4939-A62F-0E32C394DD3D}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -942,110 +1543,110 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="147.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="B1" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="33.6" customHeight="1" thickBot="1">
       <c r="B12" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1">
+      <c r="B13" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="12" t="s">
+    <row r="14" spans="1:2" ht="28.8" customHeight="1" thickBot="1">
+      <c r="B14" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
+    <row r="15" spans="1:2" ht="15" thickBot="1">
+      <c r="B15" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="12" t="s">
+    <row r="16" spans="1:2" ht="39.6" customHeight="1" thickBot="1">
+      <c r="B16" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="11" t="s">
+    <row r="17" spans="2:2" ht="15" thickBot="1">
+      <c r="B17" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="12" t="s">
+    <row r="18" spans="2:2" ht="39" customHeight="1" thickBot="1">
+      <c r="B18" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="11" t="s">
+    <row r="19" spans="2:2" ht="15" thickBot="1">
+      <c r="B19" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="12" t="s">
+    <row r="20" spans="2:2" ht="34.200000000000003" customHeight="1" thickBot="1">
+      <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="11" t="s">
+    <row r="21" spans="2:2" ht="15" thickBot="1">
+      <c r="B21" s="12" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="12" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1054,15 +1655,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5FFA2B-582A-4901-A50F-81200F1F9A17}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="49.5546875" customWidth="1"/>
     <col min="3" max="3" width="48.88671875" customWidth="1"/>
@@ -1070,115 +1671,115 @@
     <col min="6" max="6" width="43.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="C1" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.399999999999999" customHeight="1">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="82.8">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="103.2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="14" t="s">
+    <row r="12" spans="1:6" ht="72">
+      <c r="B12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" ht="28.8">
       <c r="C13" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="42" customHeight="1">
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="43.2">
       <c r="B17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="28.8">
+      <c r="B19" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="28.8">
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="28.8">
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>31</v>
@@ -1189,213 +1790,211 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA18FEC-E4FE-4A4A-9455-2C7330F6D5D6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E62D47-01CF-4B73-86DE-EF0485000228}">
   <dimension ref="A1:A55"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
